--- a/pred_ohlcv/54_21/2020-01-22 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 LTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-870.0688222000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-852.3488222000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-864.2174222000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-864.2174222000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-838.8138916800001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-843.3128916800001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-791.8492916800001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-790.1222916800001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-790.6006916800001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-842.80639168</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-782.0214916800001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-792.14209168</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-772.14209168</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-793.59609168</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-793.59609168</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-833.07149168</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-907.3474159599997</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-907.3474159599997</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-894.2829159599997</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-916.7729159599998</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-883.9931159599997</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-886.9931159599997</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-883.5953159599998</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-883.5953159599998</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-668.4461732299997</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-678.4461732299997</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-676.6443732299997</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-676.9733732299997</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-672.9733732299997</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-671.9664732299997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-671.9664732299997</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-673.8882732299996</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-643.4991732299997</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-653.5607732299997</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-638.6398732299997</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-649.7051732299998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-587.4548732299997</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-628.5451732299997</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-770.6620732299997</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-770.2042732299997</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-771.7682732299996</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2889.73436109</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2573.92856109</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2612.80856109</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2612.80856109</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2247.18856109</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2260.94646109</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2260.94646109</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2143.65636109</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2142.43406109</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2142.43406109</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1742.43406109</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2208.63712273</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2216.30892273</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1824.80492273</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1488.12782273</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1479.10982273</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1395.06332273</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1345.36002273</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2372.22657474</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2304.50587474</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2304.50587474</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2304.74587474</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2299.556274739999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-2483.5934389</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-2853.8606389</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-2855.36769158</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-2850.04970225</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-3138.04998881</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3152.81608881</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3165.08738881</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-3156.27658881</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3156.33448881</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3200.927488809999</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3195.23018881</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-3191.47669324</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-3557.55739688</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-3557.55739688</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-3499.77279688</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-3388.91889688</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-3388.91889688</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-3513.16879688</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3513.19159688</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 LTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-870.8917222000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-870.0688222000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-852.3488222000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-864.2174222000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-842.3858916800001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-843.3128916800001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-791.8492916800001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-790.1222916800001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-790.6006916800001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-842.80639168</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-782.0214916800001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-792.14209168</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-772.14209168</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-793.59609168</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-793.59609168</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-668.4461732299997</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-678.4461732299997</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-676.6443732299997</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-676.9733732299997</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-672.9733732299997</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-671.9664732299997</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-671.9664732299997</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-673.8882732299996</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-643.4991732299997</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-653.5607732299997</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-638.6398732299997</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-644.0318732299997</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-649.7051732299998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-587.4548732299997</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-628.5451732299997</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-667.2501732299997</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1345.36002273</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2372.22657474</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2304.50587474</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2304.50587474</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2304.74587474</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2299.556274739999</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-2811.6949389</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-2853.8606389</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-2855.9309389</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-2855.863091579999</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2964.99929428</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2958.21408881</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2958.21408881</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-3016.57658881</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-3028.81418881</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-3026.75358881</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-3149.28028881</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-3138.04998881</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3152.81608881</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3209.77728881</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3165.08738881</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-3156.27658881</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3156.33448881</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3200.927488809999</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3195.23018881</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-3195.16239324</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-3191.47669324</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-3190.46069324</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-3242.71719324</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-3235.60549324</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-3193.15409324</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-3321.676353849999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-3293.572653849999</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-3293.572653849999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-3293.572653849999</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-3410.964353849999</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-3272.787553849999</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-3135.070648239999</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-3135.070648239999</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-3211.602648239999</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3211.602648239999</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-3049.517848239999</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-3080.974748239999</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-3080.974748239999</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-3079.579048239999</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-3087.267948239999</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-3087.87124824</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-3087.87124824</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-3087.87124824</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-3119.67764824</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-3123.64604824</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-3098.68984824</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-2994.68984824</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-3107.15894824</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-3107.15894824</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-3135.462348239999</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-3125.462348239999</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-3133.746548239999</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-3080.463248239999</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-3081.777548239999</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-3138.517248239999</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-3123.33454824</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-3122.808696879999</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-3126.894796879999</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-2897.068796879999</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-2902.021796879999</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-2887.288496879999</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-3557.55739688</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-3388.91889688</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-3513.16879688</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-3513.19159688</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-3517.540596880001</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-3470.77259688</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-3470.77259688</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-3470.77259688</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-3469.676896880001</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-3469.676896880001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-3376.29729688</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-3311.15089688</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-3311.15089688</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
